--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Edil3-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Edil3-Itgb3.xlsx
@@ -543,10 +543,10 @@
         <v>24.09638</v>
       </c>
       <c r="I2">
-        <v>0.8752332474713129</v>
+        <v>0.6352250347264584</v>
       </c>
       <c r="J2">
-        <v>0.8752332474713128</v>
+        <v>0.6352250347264584</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N2">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q2">
-        <v>30.34890065027333</v>
+        <v>20.86880109040222</v>
       </c>
       <c r="R2">
-        <v>273.14010585246</v>
+        <v>187.81920981362</v>
       </c>
       <c r="S2">
-        <v>0.3722342082138391</v>
+        <v>0.2201698432545509</v>
       </c>
       <c r="T2">
-        <v>0.3722342082138391</v>
+        <v>0.2201698432545509</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>24.09638</v>
       </c>
       <c r="I3">
-        <v>0.8752332474713129</v>
+        <v>0.6352250347264584</v>
       </c>
       <c r="J3">
-        <v>0.8752332474713128</v>
+        <v>0.6352250347264584</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,16 +617,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
         <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q3">
         <v>34.80644447108889</v>
@@ -635,10 +635,10 @@
         <v>313.2580002398</v>
       </c>
       <c r="S3">
-        <v>0.4269067090019303</v>
+        <v>0.3672146468908707</v>
       </c>
       <c r="T3">
-        <v>0.4269067090019302</v>
+        <v>0.3672146468908707</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>24.09638</v>
       </c>
       <c r="I4">
-        <v>0.8752332474713129</v>
+        <v>0.6352250347264584</v>
       </c>
       <c r="J4">
-        <v>0.8752332474713128</v>
+        <v>0.6352250347264584</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N4">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O4">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P4">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q4">
-        <v>3.866708615342222</v>
+        <v>3.768708637882222</v>
       </c>
       <c r="R4">
-        <v>34.80037753808</v>
+        <v>33.91837774094</v>
       </c>
       <c r="S4">
-        <v>0.04742581078674357</v>
+        <v>0.03976059700220222</v>
       </c>
       <c r="T4">
-        <v>0.04742581078674357</v>
+        <v>0.03976059700220222</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>24.09638</v>
       </c>
       <c r="I5">
-        <v>0.8752332474713129</v>
+        <v>0.6352250347264584</v>
       </c>
       <c r="J5">
-        <v>0.8752332474713128</v>
+        <v>0.6352250347264584</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N5">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q5">
-        <v>2.337231055475555</v>
+        <v>0.7658579229155555</v>
       </c>
       <c r="R5">
-        <v>21.03507949928</v>
+        <v>6.892721306239999</v>
       </c>
       <c r="S5">
-        <v>0.02866651946880004</v>
+        <v>0.008079947578834481</v>
       </c>
       <c r="T5">
-        <v>0.02866651946880004</v>
+        <v>0.008079947578834481</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.092633</v>
+        <v>4.495264666666666</v>
       </c>
       <c r="H6">
-        <v>3.277899</v>
+        <v>13.485794</v>
       </c>
       <c r="I6">
-        <v>0.119060464130005</v>
+        <v>0.3555104111888949</v>
       </c>
       <c r="J6">
-        <v>0.1190604641300049</v>
+        <v>0.3555104111888949</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N6">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q6">
-        <v>4.128447139887</v>
+        <v>11.67944531635622</v>
       </c>
       <c r="R6">
-        <v>37.156024258983</v>
+        <v>105.115007847206</v>
       </c>
       <c r="S6">
-        <v>0.05063607640939988</v>
+        <v>0.1232203821131292</v>
       </c>
       <c r="T6">
-        <v>0.05063607640939986</v>
+        <v>0.1232203821131292</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.092633</v>
+        <v>4.495264666666666</v>
       </c>
       <c r="H7">
-        <v>3.277899</v>
+        <v>13.485794</v>
       </c>
       <c r="I7">
-        <v>0.119060464130005</v>
+        <v>0.3555104111888949</v>
       </c>
       <c r="J7">
-        <v>0.1190604641300049</v>
+        <v>0.3555104111888949</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
         <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q7">
-        <v>4.734819484310001</v>
+        <v>19.47979489074889</v>
       </c>
       <c r="R7">
-        <v>42.61337535879</v>
+        <v>175.31815401674</v>
       </c>
       <c r="S7">
-        <v>0.05807333194989116</v>
+        <v>0.2055155621613297</v>
       </c>
       <c r="T7">
-        <v>0.05807333194989114</v>
+        <v>0.2055155621613297</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.092633</v>
+        <v>4.495264666666666</v>
       </c>
       <c r="H8">
-        <v>3.277899</v>
+        <v>13.485794</v>
       </c>
       <c r="I8">
-        <v>0.119060464130005</v>
+        <v>0.3555104111888949</v>
       </c>
       <c r="J8">
-        <v>0.1190604641300049</v>
+        <v>0.3555104111888949</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N8">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O8">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P8">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q8">
-        <v>0.5259993535759999</v>
+        <v>2.109197661080222</v>
       </c>
       <c r="R8">
-        <v>4.733994182183999</v>
+        <v>18.982778949722</v>
       </c>
       <c r="S8">
-        <v>0.006451467720547898</v>
+        <v>0.02225243876834266</v>
       </c>
       <c r="T8">
-        <v>0.006451467720547898</v>
+        <v>0.02225243876834266</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.092633</v>
+        <v>4.495264666666666</v>
       </c>
       <c r="H9">
-        <v>3.277899</v>
+        <v>13.485794</v>
       </c>
       <c r="I9">
-        <v>0.119060464130005</v>
+        <v>0.3555104111888949</v>
       </c>
       <c r="J9">
-        <v>0.1190604641300049</v>
+        <v>0.3555104111888949</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N9">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q9">
-        <v>0.317940177716</v>
+        <v>0.4286204891235555</v>
       </c>
       <c r="R9">
-        <v>2.861461599444</v>
+        <v>3.857584402112</v>
       </c>
       <c r="S9">
-        <v>0.003899588050166049</v>
+        <v>0.004522028146093337</v>
       </c>
       <c r="T9">
-        <v>0.003899588050166048</v>
+        <v>0.004522028146093336</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.05236733333333333</v>
+        <v>0.117146</v>
       </c>
       <c r="H10">
-        <v>0.157102</v>
+        <v>0.351438</v>
       </c>
       <c r="I10">
-        <v>0.005706288398682217</v>
+        <v>0.009264554084646619</v>
       </c>
       <c r="J10">
-        <v>0.005706288398682216</v>
+        <v>0.009264554084646619</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N10">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q10">
-        <v>0.1978667745926667</v>
+        <v>0.3043647932846667</v>
       </c>
       <c r="R10">
-        <v>1.780800971334</v>
+        <v>2.739283139562</v>
       </c>
       <c r="S10">
-        <v>0.002426868209200326</v>
+        <v>0.003211106787562815</v>
       </c>
       <c r="T10">
-        <v>0.002426868209200325</v>
+        <v>0.003211106787562815</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.05236733333333333</v>
+        <v>0.117146</v>
       </c>
       <c r="H11">
-        <v>0.157102</v>
+        <v>0.351438</v>
       </c>
       <c r="I11">
-        <v>0.005706288398682217</v>
+        <v>0.009264554084646619</v>
       </c>
       <c r="J11">
-        <v>0.005706288398682216</v>
+        <v>0.009264554084646619</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
         <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q11">
-        <v>0.2269287768244445</v>
+        <v>0.5076408668866667</v>
       </c>
       <c r="R11">
-        <v>2.04235899142</v>
+        <v>4.56876780198</v>
       </c>
       <c r="S11">
-        <v>0.002783318398764514</v>
+        <v>0.005355708246385301</v>
       </c>
       <c r="T11">
-        <v>0.002783318398764513</v>
+        <v>0.005355708246385301</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.05236733333333333</v>
+        <v>0.117146</v>
       </c>
       <c r="H12">
-        <v>0.157102</v>
+        <v>0.351438</v>
       </c>
       <c r="I12">
-        <v>0.005706288398682217</v>
+        <v>0.009264554084646619</v>
       </c>
       <c r="J12">
-        <v>0.005706288398682216</v>
+        <v>0.009264554084646619</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N12">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O12">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P12">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q12">
-        <v>0.02520991355911111</v>
+        <v>0.05496541083266667</v>
       </c>
       <c r="R12">
-        <v>0.226889222032</v>
+        <v>0.494688697494</v>
       </c>
       <c r="S12">
-        <v>0.0003092036947549378</v>
+        <v>0.0005798955979802753</v>
       </c>
       <c r="T12">
-        <v>0.0003092036947549378</v>
+        <v>0.0005798955979802753</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.05236733333333333</v>
+        <v>0.117146</v>
       </c>
       <c r="H13">
-        <v>0.157102</v>
+        <v>0.351438</v>
       </c>
       <c r="I13">
-        <v>0.005706288398682217</v>
+        <v>0.009264554084646619</v>
       </c>
       <c r="J13">
-        <v>0.005706288398682216</v>
+        <v>0.009264554084646619</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N13">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q13">
-        <v>0.01523812594577778</v>
+        <v>0.01116979300266667</v>
       </c>
       <c r="R13">
-        <v>0.137143133512</v>
+        <v>0.100528137024</v>
       </c>
       <c r="S13">
-        <v>0.0001868980959624402</v>
+        <v>0.0001178434527182271</v>
       </c>
       <c r="T13">
-        <v>0.0001868980959624401</v>
+        <v>0.0001178434527182271</v>
       </c>
     </row>
   </sheetData>
